--- a/A2/cost_estimate_EK.xlsx
+++ b/A2/cost_estimate_EK.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1530" windowWidth="21345" windowHeight="14670" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -446,8 +446,8 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -625,11 +625,6 @@
       <c r="B17" t="n">
         <v>4.6</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>half of at</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -997,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v/>
+        <v>952535558.3503456</v>
       </c>
     </row>
     <row r="46">
@@ -1014,7 +1009,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v/>
+        <v>369817.8898797751</v>
       </c>
     </row>
     <row r="48">
@@ -1024,7 +1019,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v/>
+        <v>496377.6927108178</v>
       </c>
     </row>
     <row r="49">
@@ -1034,7 +1029,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v/>
+        <v>1586639.627116211</v>
       </c>
     </row>
     <row r="50">
@@ -1044,7 +1039,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v/>
+        <v>33931.08674541409</v>
       </c>
     </row>
     <row r="51">
@@ -1054,7 +1049,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v/>
+        <v>481016.453647761</v>
       </c>
     </row>
     <row r="52">
@@ -1064,7 +1059,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v/>
+        <v>154697.3636438305</v>
       </c>
     </row>
     <row r="53">
@@ -1074,7 +1069,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v/>
+        <v>52638.41409067671</v>
       </c>
     </row>
     <row r="54">
@@ -1144,7 +1139,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v/>
+        <v>3719607.925617266</v>
       </c>
     </row>
     <row r="61">
@@ -1154,7 +1149,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v/>
+        <v>371960.7925617266</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1159,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v/>
+        <v>4091568.718178992</v>
       </c>
     </row>
     <row r="64">
@@ -1181,7 +1176,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v/>
+        <v>3632596.93720648</v>
       </c>
     </row>
     <row r="66">
@@ -1191,7 +1186,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v/>
+        <v>11135.61772978411</v>
       </c>
     </row>
     <row r="67">
@@ -1201,7 +1196,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v/>
+        <v>3643732.554936264</v>
       </c>
     </row>
   </sheetData>

--- a/A2/cost_estimate_EK.xlsx
+++ b/A2/cost_estimate_EK.xlsx
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>952535558.3503456</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>369817.8898797751</v>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>496377.6927108178</v>
+        <v/>
       </c>
     </row>
     <row r="49">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1586639.627116211</v>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33931.08674541409</v>
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>481016.453647761</v>
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>154697.3636438305</v>
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52638.41409067671</v>
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3719607.925617266</v>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>371960.7925617266</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4091568.718178992</v>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3632596.93720648</v>
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11135.61772978411</v>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3643732.554936264</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/A2/cost_estimate_EK.xlsx
+++ b/A2/cost_estimate_EK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\College Classes\EAE 130\SunGoldSkies\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E1DD64-2DA6-453E-A659-20C1670D11B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A7608-855E-4B9E-8C49-E292DF2FE249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1530" windowWidth="19815" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14070" yWindow="165" windowWidth="14850" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,6 +1040,9 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
+      <c r="B44">
+        <v>391673888.28763229</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1050,36 +1053,57 @@
       <c r="A47" t="s">
         <v>38</v>
       </c>
+      <c r="B47">
+        <v>414810.81429735292</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
+      <c r="B48">
+        <v>458644.67119343032</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
+      <c r="B49">
+        <v>1752983.265968903</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
+      <c r="B50">
+        <v>33793.781315888598</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
+      <c r="B51">
+        <v>856975.03201219952</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
+      <c r="B52">
+        <v>213644.8355399601</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
+      <c r="B53">
+        <v>61216.909912467352</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1110,7 +1134,7 @@
         <v>51</v>
       </c>
       <c r="B57">
-        <v>22764.397782780019</v>
+        <v>45528.795565560038</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,35 +1157,53 @@
       <c r="A60" t="s">
         <v>54</v>
       </c>
+      <c r="B60">
+        <v>3539337.350918828</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
+      <c r="B61">
+        <v>353933.73509188282</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
+      <c r="B62">
+        <v>3893271.0860107099</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>3560435.792588681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>11229.34993761031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>60</v>
+      </c>
+      <c r="B67">
+        <v>3571665.1425262899</v>
       </c>
     </row>
   </sheetData>
